--- a/biology/Histoire de la zoologie et de la botanique/Rudolph_Kaméline/Rudolph_Kaméline.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rudolph_Kaméline/Rudolph_Kaméline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rudolph_Kam%C3%A9line</t>
+          <t>Rudolph_Kaméline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolph Vladimirovitch Kaméline (Рудо́льф Влади́мирович Каме́лин), né le 12 août 1938 à Perm et décédé le 1er avril 2016, est un botaniste russe et ex-soviétique qui est spécialisé dans la systématique végétale et la phytogéographie, la floristique comparée et l'histoire de la flore. Il est membre-correspondant de l'Académie des sciences du Tadjikistan depuis 1987, membre-correspondant de l'Académie des sciences de Russie depuis 1991 (après avoir été membre-correspondant de celle de l'URSS en 1990), docteur en sciences biologiques (1975), scientifique émérite, professeur à la chaire de botanique de la faculté de biologie de l'université d'État de l'Altaï (Barnaoul) et président de la Société botanique de Russie depuis 1991.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rudolph_Kam%C3%A9line</t>
+          <t>Rudolph_Kaméline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il termine l'école secondaire de Koungour en 1955 et entre à la faculté de biologie de l'université d'État de Perm qu'il termine en 1961. Il est collaborateur à la station botanique de Barzob dépendant de l'institut de botanique de l'Académie des sciences de la RSS du Tadjikistan. Les trois années suivantes, il est doctorant dans ce même institut et celui de botanique de l'Académie des sciences d'URSS.
 Il est nommé en 1968 collaborateur scientifique de premier niveau, puis confirmé et ensuite directeur-adjoint des recherches scientifiques (1980). Il dirige le laboratoire du département des plantes des zones arides du service de géobotanique (1984), puis dirige l'herbier des plantes supérieures de l'institut de botanique Komarov de l'Académie des sciences.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rudolph_Kam%C3%A9line</t>
+          <t>Rudolph_Kaméline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolph Kaméline s'intéresse avant tout à la taxonomie des plantes, à la géobotanique (théorie et floristique, particulièrement la flore d'Asie et les territoires préhistoriques de la Méditerranée), à la phytogéographie, à la genèse de la flore asiatique, à l'histoire de la flore de l'Eurasie, ainsi qu'à la conservation de la nature.
 Il est l'auteur de plus de cinq cents publications scientifiques, dont neuf monographies et cinq manuels pour les étudiants des universités. Ses travaux sur la genèse de la flore asiatique et de l'Altaï font autorité ainsi que la taxonomie et la systématique qui s'y rapporte. Le professeur Kaméline est également coauteur de vingt monographies dont l'une sur La Flore de Chine. Il est rédacteur et auteur de la nouvelle collection de La Flore de l'Altaï (comprenant les territoires altaïques de Russie, du Kazakhstan, de Chine et de Mongolie). Il prend part également à la rédaction et à la classification des espèces menacées du livre rouge de Russie et de celui du kraï de l'Altaï, comme il a pris part aux travaux concernant le livre rouge d'URSS, le livre rouge de la RSFSR et le livre rouge de la RSS du Tadjikistan.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rudolph_Kam%C3%A9line</t>
+          <t>Rudolph_Kaméline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Материалы по истории Флоры Азии (Алтайская горная страна): монография [Matériaux à propos de l'histoire de la flore d'Asie (région montagneuse de l'Altaï): monographie]. — Barnaoul: Изд-во Алт. ун-та, 1998. — 240 pages.
 Сложноцветные (краткий обзор системы): учебн. пособие [Les composées (petit essai de taxonomie)]. — Barnaoul: Изд-во Алт. ун-та, 2000. — 60 pages.
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rudolph_Kam%C3%A9line</t>
+          <t>Rudolph_Kaméline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,32 +636,34 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Plusieurs plantes ont été nommées en son honneur, dont:
 Genre
-(Apiaceae) Kamelinia F.O.Khass. &amp; I.I.Malzev[1]
+(Apiaceae) Kamelinia F.O.Khass. &amp; I.I.Malzev
 Espèces
-(Apiaceae) Lithosciadium kamelinii (V.M.Vinogr.) Pimenov ex Gubanov[2]
-(Asteraceae) Jurinea kamelinii Iljin[3]
-(Asteraceae) Tanacetopsis kamelinii Kovalevsk.[4]
-(Boraginaceae) Eritrichium kamelinii S.V.Ovczinnikova[5]
-(Boraginaceae) Myosotis kamelinii O.D.Nikif.[6]
-(Brassicaceae) Arabis kamelinii Botsch.[7]
-(Iridaceae) Iris kamelinii Alexeeva[8]
-(Lamiaceae) Phlomoides kamelinii Makhm.[9]
-(Leguminosae) Ammopiptanthus kamelinii Lazkov[10]
-(Leguminosae) Astragalus kamelinii Podlech[11]
-(Leguminosae) Hedysarum kamelinii N.Ulziykh.[12]
-(Leguminosae) Oxytropis kamelinii Vassilcz.[13]
-(Liliaceae) Gagea kamelinii Levichev[14]
-(Papaveraceae) Corydalis kamelinii Kurbanov[15]
-(Poaceae) Stipa kamelinii Kotukhov[16]
-(Polypodiaceae) Polypodium kamelinii Shmakov[17]
-(Ranunculaceae) Aconitum kamelinii A.A.Solovjev[18]
-(Rosaceae) Potentilla kamelinii Lazkov[19]
-(Scrophulariaceae) Scrophularia kamelinii Botsch. &amp; Kurbanov[20]
-(Valerianaceae) Valeriana kamelinii B.A.Sharipova[21]</t>
+(Apiaceae) Lithosciadium kamelinii (V.M.Vinogr.) Pimenov ex Gubanov
+(Asteraceae) Jurinea kamelinii Iljin
+(Asteraceae) Tanacetopsis kamelinii Kovalevsk.
+(Boraginaceae) Eritrichium kamelinii S.V.Ovczinnikova
+(Boraginaceae) Myosotis kamelinii O.D.Nikif.
+(Brassicaceae) Arabis kamelinii Botsch.
+(Iridaceae) Iris kamelinii Alexeeva
+(Lamiaceae) Phlomoides kamelinii Makhm.
+(Leguminosae) Ammopiptanthus kamelinii Lazkov
+(Leguminosae) Astragalus kamelinii Podlech
+(Leguminosae) Hedysarum kamelinii N.Ulziykh.
+(Leguminosae) Oxytropis kamelinii Vassilcz.
+(Liliaceae) Gagea kamelinii Levichev
+(Papaveraceae) Corydalis kamelinii Kurbanov
+(Poaceae) Stipa kamelinii Kotukhov
+(Polypodiaceae) Polypodium kamelinii Shmakov
+(Ranunculaceae) Aconitum kamelinii A.A.Solovjev
+(Rosaceae) Potentilla kamelinii Lazkov
+(Scrophulariaceae) Scrophularia kamelinii Botsch. &amp; Kurbanov
+(Valerianaceae) Valeriana kamelinii B.A.Sharipova</t>
         </is>
       </c>
     </row>
